--- a/data/trans_orig/VUL_DEP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en País Vasco</t>
+          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en Andalucia</t>
+          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en C.Valenciana</t>
+          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_DEP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Edad-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2208</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>282</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -780,12 +780,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>934</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>452</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2872</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62150</t>
+          <t>75724</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60561</t>
+          <t>74219</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62604</t>
+          <t>76517</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,27 +883,27 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62111</t>
+          <t>65960</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>60500</t>
+          <t>65308</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>124261</t>
+          <t>141684</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>122390</t>
+          <t>139906</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>124913</t>
+          <t>142524</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,68%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>241</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>899</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,22 +1113,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>849</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>279</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2036</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>472</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -1191,27 +1191,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>68516</t>
+          <t>74247</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67385</t>
+          <t>73589</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1226,27 +1226,27 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62452</t>
+          <t>68292</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>61308</t>
+          <t>67080</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63092</t>
+          <t>68862</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>130968</t>
+          <t>142539</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>129624</t>
+          <t>141302</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131719</t>
+          <t>143157</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>99,67%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>518</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2979</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1057</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2987</t>
+          <t>3195</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1743</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>4859</t>
+          <t>5086</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94082</t>
+          <t>102902</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92965</t>
+          <t>101200</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94636</t>
+          <t>103661</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95711</t>
+          <t>109122</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94173</t>
+          <t>107343</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96751</t>
+          <t>109940</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>189793</t>
+          <t>212024</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>187921</t>
+          <t>210133</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>191037</t>
+          <t>213294</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>99,11%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2450</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6309</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>6560</t>
+          <t>6059</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>4463</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>8937</t>
+          <t>8421</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>135750</t>
+          <t>142311</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>133858</t>
+          <t>140940</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>136803</t>
+          <t>143393</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>133980</t>
+          <t>148504</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>131781</t>
+          <t>146454</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>135465</t>
+          <t>149786</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>269731</t>
+          <t>290815</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>267354</t>
+          <t>288453</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>271828</t>
+          <t>292602</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>98,56%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5573</t>
+          <t>4838</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3543</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8397</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7430</t>
+          <t>7783</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5308</t>
+          <t>5685</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10211</t>
+          <t>10834</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>13003</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>10147</t>
+          <t>9776</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17109</t>
+          <t>16313</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>120634</t>
+          <t>124427</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>117810</t>
+          <t>122174</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>122664</t>
+          <t>125933</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>139275</t>
+          <t>144239</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>136494</t>
+          <t>141188</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>141397</t>
+          <t>146337</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>259908</t>
+          <t>268666</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>255802</t>
+          <t>264974</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>262764</t>
+          <t>271511</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,52%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,102 +2450,102 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4299</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4916</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3333</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6847</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,88%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>6962</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>9339</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
           <t>2,25%</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>4,0%</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>4416</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>6388</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>3,84%</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>5,55%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>6837</t>
-        </is>
-      </c>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>4812</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>9166</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="V19" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -2563,102 +2563,102 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>104950</t>
+          <t>102293</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>103072</t>
+          <t>100742</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>106163</t>
+          <t>103254</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>98,04%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>96,55%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>98,96%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>111006</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>109075</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>112589</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>95,76%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>94,09%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>97,12%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1305</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>213299</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>210922</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>215309</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>96,84%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>95,76%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
           <t>97,75%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>96,0%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>98,88%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>674</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>110618</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>108646</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>112034</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>96,16%</t>
-        </is>
-      </c>
-      <c r="O20" s="2" t="inlineStr">
-        <is>
-          <t>94,45%</t>
-        </is>
-      </c>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>97,39%</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>1305</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>215567</t>
-        </is>
-      </c>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>213238</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr">
-        <is>
-          <t>217592</t>
-        </is>
-      </c>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>96,93%</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>95,88%</t>
-        </is>
-      </c>
-      <c r="W20" s="2" t="inlineStr">
-        <is>
-          <t>97,84%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>892</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9578</t>
+          <t>9781</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>7694</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12230</t>
+          <t>12926</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>11508</t>
+          <t>11521</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>8979</t>
+          <t>8991</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>14548</t>
+          <t>14242</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>94193</t>
+          <t>87346</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>92675</t>
+          <t>85860</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>95062</t>
+          <t>88194</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>123782</t>
+          <t>122046</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>121130</t>
+          <t>118901</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>126010</t>
+          <t>124133</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>217975</t>
+          <t>209392</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>214935</t>
+          <t>206671</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>220504</t>
+          <t>211922</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>95,93%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14275</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10972</t>
+          <t>10296</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>18039</t>
+          <t>16392</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>28905</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>24671</t>
+          <t>24966</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>33990</t>
+          <t>34080</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>43180</t>
+          <t>42740</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>37851</t>
+          <t>37251</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>48958</t>
+          <t>48427</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>680275</t>
+          <t>709251</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>676511</t>
+          <t>706118</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>683578</t>
+          <t>712214</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>98,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>727928</t>
+          <t>769169</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>722843</t>
+          <t>764570</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>732162</t>
+          <t>773684</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1408203</t>
+          <t>1478420</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1402425</t>
+          <t>1472733</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1413532</t>
+          <t>1483909</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>96,63%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20828</t>
+          <t>21397</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2190</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18994</t>
+          <t>19786</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5300</t>
+          <t>6094</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>29088</t>
+          <t>30347</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,22%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>215408</t>
+          <t>214839</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>234424</t>
+          <t>234292</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>165359</t>
+          <t>164567</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182163</t>
+          <t>182103</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>391501</t>
+          <t>390242</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>415289</t>
+          <t>414495</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,55%</t>
         </is>
       </c>
     </row>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>4853</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2653</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19342</t>
+          <t>19555</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4382</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>19191</t>
+          <t>20046</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,69%</t>
         </is>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>224492</t>
+          <t>224515</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4198,7 +4198,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>295086</t>
+          <t>294873</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>311775</t>
+          <t>311417</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,85%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>524605</t>
+          <t>523750</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>539414</t>
+          <t>539937</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>99,29%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7730</t>
+          <t>8443</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24485</t>
+          <t>25584</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8811</t>
+          <t>8496</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20608</t>
+          <t>20641</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>19379</t>
+          <t>19961</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39588</t>
+          <t>39710</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>286284</t>
+          <t>285185</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>303039</t>
+          <t>302326</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>301234</t>
+          <t>301201</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>313031</t>
+          <t>313346</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>593022</t>
+          <t>592900</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>613231</t>
+          <t>612649</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,84%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9757</t>
+          <t>10590</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56909</t>
+          <t>55641</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25953</t>
+          <t>26200</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43800</t>
+          <t>43688</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>26533</t>
+          <t>31654</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>90080</t>
+          <t>92843</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>9,01%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>570255</t>
+          <t>571523</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>617407</t>
+          <t>616574</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,93%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>359693</t>
+          <t>359805</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>377540</t>
+          <t>377293</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>940578</t>
+          <t>937815</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1004125</t>
+          <t>999004</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>96,93%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17624</t>
+          <t>17266</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36132</t>
+          <t>35167</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>35019</t>
+          <t>36058</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>53982</t>
+          <t>55136</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>58684</t>
+          <t>56814</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>84856</t>
+          <t>84050</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,8%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>301645</t>
+          <t>302610</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>320153</t>
+          <t>320511</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,3%</t>
+          <t>89,59%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>264912</t>
+          <t>263758</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>283875</t>
+          <t>282836</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,07%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>571815</t>
+          <t>572621</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>597987</t>
+          <t>599857</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>87,2%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,35%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3806</t>
+          <t>3783</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12519</t>
+          <t>12786</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10159</t>
+          <t>10132</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>62116</t>
+          <t>61918</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15581</t>
+          <t>15097</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>60428</t>
+          <t>59574</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>194847</t>
+          <t>194580</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>203560</t>
+          <t>203583</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>389948</t>
+          <t>390146</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>441905</t>
+          <t>441932</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>97,76%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>599001</t>
+          <t>599855</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>643848</t>
+          <t>644332</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>97,71%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7357</t>
+          <t>7227</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18983</t>
+          <t>18759</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>21616</t>
+          <t>21438</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36923</t>
+          <t>36954</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>31514</t>
+          <t>31390</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>50421</t>
+          <t>49127</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>12,71%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>132792</t>
+          <t>133016</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>144548</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>87,64%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>197787</t>
+          <t>197756</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>213094</t>
+          <t>213272</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,27%</t>
+          <t>84,26%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>90,87%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>336064</t>
+          <t>337358</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>354971</t>
+          <t>355095</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,85%</t>
+          <t>91,88%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>66608</t>
+          <t>64621</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>123259</t>
+          <t>124176</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>123288</t>
+          <t>121849</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>198264</t>
+          <t>198386</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>217131</t>
+          <t>211623</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>311111</t>
+          <t>309454</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,15%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1977195</t>
+          <t>1976278</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2033846</t>
+          <t>2035833</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2031520</t>
+          <t>2031398</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2106496</t>
+          <t>2107935</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4019127</t>
+          <t>4020784</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4113107</t>
+          <t>4118615</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,11%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_DEP-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_DEP-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7347</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1709</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>20659</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1010</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2515</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3,28%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>7804</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2284</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>21604</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>15151</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>6584</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>30533</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>6,62%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75724</t>
+          <t>233918</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74219</t>
+          <t>220606</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76517</t>
+          <t>239556</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,72%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>114</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65960</t>
+          <t>211851</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>65308</t>
+          <t>198051</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>217371</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>205</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>141684</t>
+          <t>445769</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>139906</t>
+          <t>430387</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>142524</t>
+          <t>454336</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,68%</t>
+          <t>98,57%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>2873</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>9453</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1103,77 +1103,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>849</t>
+          <t>9169</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>18264</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>12043</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>23165</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>4,25%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>259101</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>252521</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>261974</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>98,9%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96,39%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>274284</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>265189</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>279757</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>96,77%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>93,56%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>98,7%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
           <t>393</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>74247</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>73589</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>74488</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>99,68%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>98,79%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>367</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>68292</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>67080</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>68862</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>98,77%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>97,02%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>99,6%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>760</t>
-        </is>
-      </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142539</t>
+          <t>533383</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>141302</t>
+          <t>522261</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>143157</t>
+          <t>539850</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>98,98%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>9470</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2979</t>
+          <t>27422</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>15558</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>9405</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3697</t>
+          <t>22734</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>31538</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>21756</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>5086</t>
+          <t>43616</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102902</t>
+          <t>352338</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>101200</t>
+          <t>340896</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103661</t>
+          <t>358848</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>92,55%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>97,43%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>472</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109122</t>
+          <t>357059</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>107343</t>
+          <t>349883</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109940</t>
+          <t>363212</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>772</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>212024</t>
+          <t>709397</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>210133</t>
+          <t>697319</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>213294</t>
+          <t>719179</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>492</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>805</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>35473</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1025</t>
+          <t>24927</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3478</t>
+          <t>49085</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3952</t>
+          <t>38702</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>29859</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>6002</t>
+          <t>49234</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>6059</t>
+          <t>74175</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>60029</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>90740</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>10,5%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>786</t>
+          <t>359</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>142311</t>
+          <t>388468</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>140940</t>
+          <t>374856</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>143393</t>
+          <t>399014</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,54%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>88,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>601</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>148504</t>
+          <t>401191</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>146454</t>
+          <t>390659</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>149786</t>
+          <t>410034</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>91,2%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>88,81%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>960</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>290815</t>
+          <t>789659</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>288453</t>
+          <t>773094</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>292602</t>
+          <t>803805</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,56%</t>
+          <t>93,05%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>658</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>439893</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>439893</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>439893</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1048</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>863834</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>863834</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>863834</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4838</t>
+          <t>26022</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>17526</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7091</t>
+          <t>35634</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7783</t>
+          <t>50253</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5685</t>
+          <t>40703</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10834</t>
+          <t>61946</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>106</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>12621</t>
+          <t>76274</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>9776</t>
+          <t>62423</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>16313</t>
+          <t>91435</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>12,58%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>124427</t>
+          <t>340516</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>122174</t>
+          <t>330904</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>125933</t>
+          <t>349012</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>95,22%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>489</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>144239</t>
+          <t>310113</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>141188</t>
+          <t>298420</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>146337</t>
+          <t>319663</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>86,06%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>82,81%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>88,71%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>856</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>268666</t>
+          <t>650630</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>264974</t>
+          <t>635469</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>271511</t>
+          <t>664481</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>89,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>91,41%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>396</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>366538</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>366538</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>366538</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>962</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>726904</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>726904</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>726904</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2046</t>
+          <t>7817</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1085</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>13550</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4916</t>
+          <t>34646</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3333</t>
+          <t>27087</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6847</t>
+          <t>43797</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>6962</t>
+          <t>42463</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4952</t>
+          <t>33629</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>9339</t>
+          <t>53159</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>102293</t>
+          <t>222587</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>100742</t>
+          <t>216854</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>103254</t>
+          <t>226479</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>421</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>111006</t>
+          <t>234697</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>109075</t>
+          <t>225546</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>112589</t>
+          <t>242256</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>87,14%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>83,74%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>89,94%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>726</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>213299</t>
+          <t>457285</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>210922</t>
+          <t>446589</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>215309</t>
+          <t>466119</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,75%</t>
+          <t>93,27%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>481</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>269343</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>269343</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>269343</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>797</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>499748</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>499748</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>499748</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>13586</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>8075</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>20882</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>49</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9781</t>
+          <t>30996</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7694</t>
+          <t>23652</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12926</t>
+          <t>40761</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>12,02%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>11521</t>
+          <t>44582</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>8991</t>
+          <t>34812</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>14242</t>
+          <t>54519</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>12,88%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>541</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>87346</t>
+          <t>151995</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>85860</t>
+          <t>144699</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>88194</t>
+          <t>157506</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>122046</t>
+          <t>226811</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>118901</t>
+          <t>217046</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>124133</t>
+          <t>234155</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,58%</t>
+          <t>87,98%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>90,19%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>90,83%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1282</t>
+          <t>606</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>209392</t>
+          <t>378805</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>206671</t>
+          <t>368868</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>211922</t>
+          <t>388575</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,78%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>91,78%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>674</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>13259</t>
+          <t>109096</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>10296</t>
+          <t>88877</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>16392</t>
+          <t>131905</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>29481</t>
+          <t>187129</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>24966</t>
+          <t>165827</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>34080</t>
+          <t>208459</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>382</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>42740</t>
+          <t>296225</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>37251</t>
+          <t>266146</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>48427</t>
+          <t>327368</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>7,68%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>709251</t>
+          <t>1948926</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>706118</t>
+          <t>1926117</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>712214</t>
+          <t>1969145</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>95,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4301</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>769169</t>
+          <t>2016004</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>764570</t>
+          <t>1994674</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>773684</t>
+          <t>2037306</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8290</t>
+          <t>4518</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1478420</t>
+          <t>3964930</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1472733</t>
+          <t>3933787</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1483909</t>
+          <t>3995009</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>93,05%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>93,75%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2058022</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2058022</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2058022</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2203133</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2203133</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2203133</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8543</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4261155</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4261155</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4261155</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en Andalucia (tasa de respuesta: 99,82%)</t>
+          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3722,102 +3722,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7416</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>362</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21397</t>
+          <t>6602</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19786</t>
+          <t>7449</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>14645</t>
+          <t>5778</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6094</t>
+          <t>2957</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>30347</t>
+          <t>11365</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>228820</t>
+          <t>168022</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>214839</t>
+          <t>163569</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>234292</t>
+          <t>169809</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>263</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>177124</t>
+          <t>166813</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>164567</t>
+          <t>162993</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>182103</t>
+          <t>168922</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>532</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>405944</t>
+          <t>334835</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>390242</t>
+          <t>329248</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>414495</t>
+          <t>337656</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>99,13%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4065,7 +4065,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1430</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -4075,12 +4075,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4853</t>
+          <t>4497</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -4090,77 +4090,77 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9017</t>
+          <t>2965</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>19555</t>
+          <t>6316</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10097</t>
+          <t>4395</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3859</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>20046</t>
+          <t>8755</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>2,22%</t>
         </is>
       </c>
     </row>
@@ -4173,32 +4173,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>228289</t>
+          <t>180783</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>224515</t>
+          <t>177716</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4208,72 +4208,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>310</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>305411</t>
+          <t>208927</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>294873</t>
+          <t>205576</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>311417</t>
+          <t>210862</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>99,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>597</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>533699</t>
+          <t>389710</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>523750</t>
+          <t>385350</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>539937</t>
+          <t>392062</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,88%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>97,78%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,48%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>316</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211892</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>605</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>394105</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14534</t>
+          <t>4498</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8443</t>
+          <t>1825</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25584</t>
+          <t>8757</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14027</t>
+          <t>9488</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8496</t>
+          <t>5675</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20641</t>
+          <t>15622</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>28561</t>
+          <t>13987</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>19961</t>
+          <t>8536</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>39710</t>
+          <t>20884</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>386</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>296235</t>
+          <t>244423</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>285185</t>
+          <t>240164</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>302326</t>
+          <t>247096</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>98,19%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>388</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>307815</t>
+          <t>237730</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>301201</t>
+          <t>231596</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>313346</t>
+          <t>241543</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>96,16%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,36%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>774</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>604049</t>
+          <t>482152</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>592900</t>
+          <t>475255</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>612649</t>
+          <t>487603</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>98,28%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248921</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>404</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>247218</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>797</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>496139</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>30561</t>
+          <t>5290</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10590</t>
+          <t>2650</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55641</t>
+          <t>9405</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>34178</t>
+          <t>9219</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26200</t>
+          <t>5144</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>43688</t>
+          <t>15850</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>64740</t>
+          <t>14509</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>31654</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>92843</t>
+          <t>21783</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>3,78%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>475</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>596603</t>
+          <t>291717</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>571523</t>
+          <t>287602</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>616574</t>
+          <t>294357</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>96,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,31%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>601</t>
+          <t>444</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>369315</t>
+          <t>269739</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>359805</t>
+          <t>263108</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>377293</t>
+          <t>273814</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>919</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>965918</t>
+          <t>561456</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>937815</t>
+          <t>554182</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>999004</t>
+          <t>567098</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>98,46%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>403493</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>403493</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>403493</t>
+          <t>278958</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1048</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1030658</t>
+          <t>575965</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1030658</t>
+          <t>575965</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1030658</t>
+          <t>575965</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25547</t>
+          <t>10975</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17266</t>
+          <t>6417</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35167</t>
+          <t>17093</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>44266</t>
+          <t>13881</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>36058</t>
+          <t>8865</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>55136</t>
+          <t>20542</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>69813</t>
+          <t>24856</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>56814</t>
+          <t>17743</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>84050</t>
+          <t>33514</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>6,86%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>352</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>312230</t>
+          <t>223216</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>302610</t>
+          <t>217098</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>320511</t>
+          <t>227774</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>95,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>274628</t>
+          <t>240215</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>263758</t>
+          <t>233554</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>282836</t>
+          <t>245231</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>82,71%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>745</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>586858</t>
+          <t>463431</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>572621</t>
+          <t>454773</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>599857</t>
+          <t>470544</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>89,37%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>96,37%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>369</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>337777</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>337777</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>337777</t>
+          <t>234191</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>787</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>656671</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>656671</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>656671</t>
+          <t>488287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7336</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3783</t>
+          <t>1452</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>12786</t>
+          <t>5585</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31506</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10132</t>
+          <t>5688</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>61918</t>
+          <t>12796</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>38842</t>
+          <t>11696</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15097</t>
+          <t>8377</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>59574</t>
+          <t>16817</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>200030</t>
+          <t>180547</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>194580</t>
+          <t>177938</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>203583</t>
+          <t>182071</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,46%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>463</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>420558</t>
+          <t>180262</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>390146</t>
+          <t>176186</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>441932</t>
+          <t>183294</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,3%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,76%</t>
+          <t>96,99%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>726</t>
+          <t>1021</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>620587</t>
+          <t>360809</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>599855</t>
+          <t>355688</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>644332</t>
+          <t>364128</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>95,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,75%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>183523</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>487</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452064</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452064</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452064</t>
+          <t>188982</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>659429</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>659429</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>659429</t>
+          <t>372505</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>12070</t>
+          <t>4019</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7227</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18759</t>
+          <t>6718</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>27911</t>
+          <t>16025</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>21438</t>
+          <t>11727</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36954</t>
+          <t>21961</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>39981</t>
+          <t>20044</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>31390</t>
+          <t>15264</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>49127</t>
+          <t>25574</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>139705</t>
+          <t>143242</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>133016</t>
+          <t>140543</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>144548</t>
+          <t>144961</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,64%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>489</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>206799</t>
+          <t>196833</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>197756</t>
+          <t>190897</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>213272</t>
+          <t>201131</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>92,47%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>958</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>346504</t>
+          <t>340075</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>337358</t>
+          <t>334545</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>355095</t>
+          <t>344855</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>87,29%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>95,76%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>483</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>147261</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>531</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>212858</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>360119</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>98545</t>
+          <t>31337</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>64621</t>
+          <t>24208</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>124176</t>
+          <t>41149</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>133</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>168134</t>
+          <t>63928</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>121849</t>
+          <t>53318</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>198386</t>
+          <t>76574</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>196</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>266678</t>
+          <t>95265</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>211623</t>
+          <t>82789</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>309454</t>
+          <t>109971</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2001909</t>
+          <t>1431951</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1976278</t>
+          <t>1422139</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2035833</t>
+          <t>1439080</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>97,86%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>98,35%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2061650</t>
+          <t>1500517</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2031398</t>
+          <t>1487871</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2107935</t>
+          <t>1511127</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4518</t>
+          <t>5546</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4063560</t>
+          <t>2932468</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4020784</t>
+          <t>2917762</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4118615</t>
+          <t>2944944</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,11%</t>
+          <t>97,27%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2100454</t>
+          <t>1463288</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2100454</t>
+          <t>1463288</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2100454</t>
+          <t>1463288</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>2883</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2229784</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2229784</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2229784</t>
+          <t>1564445</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>5742</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4330238</t>
+          <t>3027733</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4330238</t>
+          <t>3027733</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4330238</t>
+          <t>3027733</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la depresión en C.Valenciana (tasa de respuesta: 99,79%)</t>
+          <t>Vulnerabilidad ante la depresión en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2149</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>217</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6602</t>
+          <t>2515</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3629</t>
+          <t>282</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7449</t>
+          <t>934</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>5778</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>452</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11365</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>168022</t>
+          <t>75724</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>163569</t>
+          <t>74219</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>169809</t>
+          <t>76517</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>98,68%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>346</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>166813</t>
+          <t>65960</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>162993</t>
+          <t>65308</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>168922</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>717</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>334835</t>
+          <t>141684</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>329248</t>
+          <t>139906</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>337656</t>
+          <t>142524</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,68%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>241</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4497</t>
+          <t>899</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -7077,37 +7077,37 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2965</t>
+          <t>849</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>279</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6316</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
@@ -7117,37 +7117,37 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2043</t>
+          <t>472</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8755</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -7160,32 +7160,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>393</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>180783</t>
+          <t>74247</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>177716</t>
+          <t>73589</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>98,79%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -7195,27 +7195,27 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>208927</t>
+          <t>68292</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>205576</t>
+          <t>67080</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>210862</t>
+          <t>68862</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
@@ -7225,42 +7225,42 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>760</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>389710</t>
+          <t>142539</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>385350</t>
+          <t>141302</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>392062</t>
+          <t>143157</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,67%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211892</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>767</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>394105</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7390,107 +7390,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4498</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1825</t>
+          <t>518</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8757</t>
+          <t>2979</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9488</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5675</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15622</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13987</t>
+          <t>3195</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8536</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>20884</t>
+          <t>5086</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>2,36%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>386</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>244423</t>
+          <t>102902</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>240164</t>
+          <t>101200</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>247096</t>
+          <t>103661</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,77%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>570</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>237730</t>
+          <t>109122</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>231596</t>
+          <t>107343</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>241543</t>
+          <t>109940</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>482152</t>
+          <t>212024</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>475255</t>
+          <t>210133</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>487603</t>
+          <t>213294</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>97,64%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,28%</t>
+          <t>99,11%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248921</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>247218</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496139</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2650</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9405</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9219</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5144</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15850</t>
+          <t>6002</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>14509</t>
+          <t>6059</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>8867</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>21783</t>
+          <t>8421</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>786</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>291717</t>
+          <t>142311</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>287602</t>
+          <t>140940</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>294357</t>
+          <t>143393</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>787</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>269739</t>
+          <t>148504</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>263108</t>
+          <t>146454</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>273814</t>
+          <t>149786</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>98,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>919</t>
+          <t>1573</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>561456</t>
+          <t>290815</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>554182</t>
+          <t>288453</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>567098</t>
+          <t>292602</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>98,56%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>799</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278958</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575965</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575965</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575965</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10975</t>
+          <t>4838</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6417</t>
+          <t>3332</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17093</t>
+          <t>7091</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13881</t>
+          <t>7783</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8865</t>
+          <t>5685</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>20542</t>
+          <t>10834</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>68</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>24856</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>17743</t>
+          <t>9776</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>33514</t>
+          <t>16313</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>5,8%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>704</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>223216</t>
+          <t>124427</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>217098</t>
+          <t>122174</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>227774</t>
+          <t>125933</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,31%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>816</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>240215</t>
+          <t>144239</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>233554</t>
+          <t>141188</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>245231</t>
+          <t>146337</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>92,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>96,26%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>1520</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>463431</t>
+          <t>268666</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>454773</t>
+          <t>264974</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>470544</t>
+          <t>271511</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,52%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234191</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>857</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488287</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,97 +8419,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2976</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1452</t>
+          <t>1085</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5585</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8720</t>
+          <t>4916</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5688</t>
+          <t>3333</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12796</t>
+          <t>6847</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>44</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>11696</t>
+          <t>6962</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>8377</t>
+          <t>4952</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>16817</t>
+          <t>9339</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
@@ -8519,7 +8519,7 @@
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,24%</t>
         </is>
       </c>
     </row>
@@ -8532,102 +8532,102 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>631</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>180547</t>
+          <t>102293</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>177938</t>
+          <t>100742</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>182071</t>
+          <t>103254</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>674</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>180262</t>
+          <t>111006</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>176186</t>
+          <t>109075</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>183294</t>
+          <t>112589</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1021</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>360809</t>
+          <t>213299</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>355688</t>
+          <t>210922</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>364128</t>
+          <t>215309</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>183523</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>704</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188982</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372505</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2300</t>
+          <t>892</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6718</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>16025</t>
+          <t>9781</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>11727</t>
+          <t>7694</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>21961</t>
+          <t>12926</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>7,42%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>9,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>72</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>20044</t>
+          <t>11521</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>15264</t>
+          <t>8991</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>25574</t>
+          <t>14242</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>541</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>143242</t>
+          <t>87346</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>140543</t>
+          <t>85860</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>144961</t>
+          <t>88194</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>99,0%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>741</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>196833</t>
+          <t>122046</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>190897</t>
+          <t>118901</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>201131</t>
+          <t>124133</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>92,47%</t>
+          <t>92,58%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>1282</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>340075</t>
+          <t>209392</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>334545</t>
+          <t>206671</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>344855</t>
+          <t>211922</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>95,76%</t>
+          <t>95,93%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>147261</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>801</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>212858</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>360119</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>31337</t>
+          <t>13259</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>24208</t>
+          <t>10296</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>41149</t>
+          <t>16392</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>29481</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>24966</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>34080</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>42740</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>37251</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>48427</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
           <t>2,81%</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>63928</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>53318</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>76574</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>95265</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>82789</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>109971</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>3,15%</t>
-        </is>
-      </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1431951</t>
+          <t>709251</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1422139</t>
+          <t>706118</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1439080</t>
+          <t>712214</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
+          <t>97,73%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>98,57%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>769169</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>764570</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>773684</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>96,31%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>95,73%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>96,87%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>8290</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>1478420</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>1472733</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>1483909</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
           <t>97,19%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>98,35%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>2750</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>1500517</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>1487871</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>1511127</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>95,91%</t>
-        </is>
-      </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>95,11%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>96,59%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>5546</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>2932468</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>2917762</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>2944944</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>96,85%</t>
-        </is>
-      </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>97,55%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1463288</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1463288</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1463288</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564445</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5742</t>
+          <t>8543</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027733</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027733</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027733</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
